--- a/data/trans_orig/IP39B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP39B-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{565DCFD6-E25F-4B91-9B5C-273D492D9A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFFEF1BC-25D3-494C-A68C-20E2E26DAAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{72687E08-AC43-4F9E-94BE-3A7A94BA6E5B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FFF3D04E-1901-4B1B-9460-6606E7C05836}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="567">
   <si>
     <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2007 (Tasa respuesta: 53,99%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Más de 20</t>
@@ -94,13 +94,13 @@
     <t>8,31%</t>
   </si>
   <si>
-    <t>37,85%</t>
+    <t>39,65%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>18,79%</t>
+    <t>17,46%</t>
   </si>
   <si>
     <t>De 6 a 9</t>
@@ -115,16 +115,16 @@
     <t>5,37%</t>
   </si>
   <si>
-    <t>38,92%</t>
+    <t>38,15%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
   </si>
   <si>
     <t>Ninguna</t>
@@ -133,7 +133,7 @@
     <t>83,59%</t>
   </si>
   <si>
-    <t>61,08%</t>
+    <t>61,85%</t>
   </si>
   <si>
     <t>94,63%</t>
@@ -142,7 +142,7 @@
     <t>91,69%</t>
   </si>
   <si>
-    <t>62,15%</t>
+    <t>60,35%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -151,16 +151,16 @@
     <t>86,95%</t>
   </si>
   <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,23%</t>
@@ -175,1603 +175,1570 @@
     <t>1,07%</t>
   </si>
   <si>
-    <t>5,98%</t>
+    <t>5,43%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 44,59%)</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
   </si>
   <si>
     <t>11,33%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2016 (Tasa respuesta: 49,11%)</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 44,59%)</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2015 (Tasa respuesta: 49,11%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>3,54%</t>
   </si>
   <si>
     <t>8,45%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>11,09%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
   </si>
   <si>
     <t>86,09%</t>
   </si>
   <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
   </si>
   <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
 </sst>
 </file>
@@ -2183,7 +2150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655B170F-3C6F-48DD-8C03-622A7E2DBA82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA488D-24B4-4716-8D38-D15EE6F42486}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2801,10 +2768,10 @@
         <v>61</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,13 +2786,13 @@
         <v>46721</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>69</v>
@@ -2834,13 +2801,13 @@
         <v>46540</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>140</v>
@@ -2849,13 +2816,13 @@
         <v>93261</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,7 +2878,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2923,13 +2890,13 @@
         <v>1893</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2953,13 +2920,13 @@
         <v>1893</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +2941,13 @@
         <v>1945</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2989,13 +2956,13 @@
         <v>628</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -3004,13 +2971,13 @@
         <v>2573</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +2992,13 @@
         <v>3195</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -3040,13 +3007,13 @@
         <v>3038</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -3055,13 +3022,13 @@
         <v>6233</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,13 +3043,13 @@
         <v>16557</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -3091,13 +3058,13 @@
         <v>14796</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -3106,13 +3073,13 @@
         <v>31353</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,13 +3094,13 @@
         <v>84317</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>136</v>
@@ -3142,13 +3109,13 @@
         <v>85267</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>264</v>
@@ -3157,13 +3124,13 @@
         <v>169584</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,7 +3186,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3237,7 +3204,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3246,13 +3213,13 @@
         <v>1253</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3261,13 +3228,13 @@
         <v>1253</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3249,13 @@
         <v>2093</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3297,13 +3264,13 @@
         <v>1743</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -3312,13 +3279,13 @@
         <v>3837</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,13 +3300,13 @@
         <v>3134</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3348,13 +3315,13 @@
         <v>448</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -3363,13 +3330,13 @@
         <v>3582</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,13 +3351,13 @@
         <v>11392</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -3399,13 +3366,13 @@
         <v>10637</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -3414,13 +3381,13 @@
         <v>22029</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,13 +3402,13 @@
         <v>61224</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>97</v>
@@ -3450,13 +3417,13 @@
         <v>57181</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>195</v>
@@ -3465,13 +3432,13 @@
         <v>118406</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,7 +3494,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3539,13 +3506,13 @@
         <v>1993</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3554,13 +3521,13 @@
         <v>1502</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -3569,13 +3536,13 @@
         <v>3495</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,13 +3557,13 @@
         <v>2044</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -3605,13 +3572,13 @@
         <v>3969</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -3620,13 +3587,13 @@
         <v>6013</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3608,13 @@
         <v>1998</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -3656,13 +3623,13 @@
         <v>3727</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -3671,13 +3638,13 @@
         <v>5725</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3659,13 @@
         <v>16114</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H31" s="7">
         <v>33</v>
@@ -3707,13 +3674,13 @@
         <v>24840</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M31" s="7">
         <v>56</v>
@@ -3722,13 +3689,13 @@
         <v>40954</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3710,13 @@
         <v>110524</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H32" s="7">
         <v>122</v>
@@ -3758,13 +3725,13 @@
         <v>92956</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M32" s="7">
         <v>284</v>
@@ -3773,13 +3740,13 @@
         <v>203481</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3814,13 @@
         <v>3886</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -3862,13 +3829,13 @@
         <v>2755</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -3931,7 +3898,7 @@
         <v>207</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>208</v>
@@ -3949,7 +3916,7 @@
         <v>9039</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>209</v>
@@ -3967,10 +3934,10 @@
         <v>211</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M36" s="7">
         <v>27</v>
@@ -3979,10 +3946,10 @@
         <v>17715</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>215</v>
@@ -4164,7 +4131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169FE35B-AED6-45D0-9081-9153FDE22012}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1420CB88-B99A-4989-92C3-655BDE8392C5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4611,13 +4578,13 @@
         <v>661</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4626,7 +4593,7 @@
         <v>1291</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
@@ -4683,7 +4650,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4665,13 @@
         <v>3412</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -4713,13 +4680,13 @@
         <v>669</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -4728,10 +4695,10 @@
         <v>4081</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>262</v>
@@ -4749,13 +4716,13 @@
         <v>3370</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -4764,13 +4731,13 @@
         <v>6184</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -4779,10 +4746,10 @@
         <v>9554</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>270</v>
@@ -4892,7 +4859,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4925,7 +4892,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>282</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4934,13 +4901,13 @@
         <v>670</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4922,13 @@
         <v>572</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4970,13 +4937,13 @@
         <v>1403</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>133</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -4985,13 +4952,13 @@
         <v>1975</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +4973,13 @@
         <v>1269</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -5021,7 +4988,7 @@
         <v>2338</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>293</v>
@@ -5039,10 +5006,10 @@
         <v>295</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5024,13 @@
         <v>9345</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -5072,13 +5039,13 @@
         <v>13097</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -5087,13 +5054,13 @@
         <v>22442</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,13 +5075,13 @@
         <v>84768</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>108</v>
@@ -5123,13 +5090,13 @@
         <v>69664</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>229</v>
@@ -5138,13 +5105,13 @@
         <v>154432</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,7 +5167,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5212,13 +5179,13 @@
         <v>607</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>314</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>215</v>
+        <v>315</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -5278,13 +5245,13 @@
         <v>648</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -5293,13 +5260,13 @@
         <v>2944</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>170</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5281,13 @@
         <v>2536</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -5329,13 +5296,13 @@
         <v>2424</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>198</v>
+        <v>330</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>177</v>
+        <v>331</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -5344,13 +5311,13 @@
         <v>4960</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,13 +5332,13 @@
         <v>13686</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -5380,13 +5347,13 @@
         <v>9230</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -5395,13 +5362,13 @@
         <v>22915</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,13 +5383,13 @@
         <v>54855</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H26" s="7">
         <v>91</v>
@@ -5431,13 +5398,13 @@
         <v>58591</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>345</v>
+        <v>147</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M26" s="7">
         <v>175</v>
@@ -5446,13 +5413,13 @@
         <v>113446</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,7 +5475,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5520,13 +5487,13 @@
         <v>3800</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>206</v>
+        <v>352</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -5535,13 +5502,13 @@
         <v>2094</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -5550,13 +5517,13 @@
         <v>5894</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,13 +5538,13 @@
         <v>1462</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5592,7 +5559,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -5601,13 +5568,13 @@
         <v>1462</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5589,13 @@
         <v>2184</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -5637,13 +5604,13 @@
         <v>4683</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -5652,13 +5619,13 @@
         <v>6868</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5640,13 @@
         <v>11675</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -5688,13 +5655,13 @@
         <v>11687</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M31" s="7">
         <v>31</v>
@@ -5703,13 +5670,13 @@
         <v>23361</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>103</v>
+        <v>377</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5691,13 @@
         <v>84839</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H32" s="7">
         <v>111</v>
@@ -5739,13 +5706,13 @@
         <v>83848</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>308</v>
+        <v>383</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M32" s="7">
         <v>227</v>
@@ -5754,13 +5721,13 @@
         <v>168687</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,13 +5795,13 @@
         <v>5707</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>19</v>
+        <v>391</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -5846,10 +5813,10 @@
         <v>318</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -5858,13 +5825,13 @@
         <v>9684</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>200</v>
+        <v>393</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5846,13 @@
         <v>5164</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>389</v>
+        <v>87</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -5894,13 +5861,13 @@
         <v>2051</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>197</v>
+        <v>396</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="M35" s="7">
         <v>11</v>
@@ -5909,13 +5876,13 @@
         <v>7215</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>127</v>
+        <v>398</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>284</v>
+        <v>46</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>295</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5897,13 @@
         <v>9402</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>392</v>
+        <v>208</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>393</v>
+        <v>333</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -5945,13 +5912,13 @@
         <v>10114</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>396</v>
+        <v>52</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -5960,13 +5927,13 @@
         <v>19515</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>289</v>
+        <v>403</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +5948,13 @@
         <v>40279</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H37" s="7">
         <v>59</v>
@@ -5996,13 +5963,13 @@
         <v>40198</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M37" s="7">
         <v>117</v>
@@ -6011,13 +5978,13 @@
         <v>80477</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +5999,13 @@
         <v>274039</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H38" s="7">
         <v>376</v>
@@ -6047,13 +6014,13 @@
         <v>260962</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M38" s="7">
         <v>765</v>
@@ -6062,13 +6029,13 @@
         <v>535001</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,7 +6112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19A58D5-834E-4FAC-B3F1-5CAE11AEDD72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E564EC-DD06-407D-82D7-40A441D418AE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6162,7 +6129,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6275,7 +6242,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6290,7 +6257,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6305,7 +6272,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,13 +6287,13 @@
         <v>976</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6341,7 +6308,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6350,13 +6317,13 @@
         <v>976</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,7 +6344,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6386,13 +6353,13 @@
         <v>1044</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6401,13 +6368,13 @@
         <v>1044</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,7 +6395,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6443,7 +6410,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6458,7 +6425,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,10 +6440,10 @@
         <v>13044</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>35</v>
@@ -6488,10 +6455,10 @@
         <v>8970</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>35</v>
@@ -6503,10 +6470,10 @@
         <v>22013</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>35</v>
@@ -6583,7 +6550,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -6592,13 +6559,13 @@
         <v>722</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -6607,13 +6574,13 @@
         <v>722</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>436</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,13 +6595,13 @@
         <v>1356</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6649,7 +6616,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -6658,13 +6625,13 @@
         <v>1356</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>441</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6646,13 @@
         <v>2196</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>297</v>
+        <v>447</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6694,13 +6661,13 @@
         <v>1223</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -6709,13 +6676,13 @@
         <v>3419</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>250</v>
+        <v>448</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6697,13 @@
         <v>2108</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -6745,13 +6712,13 @@
         <v>5901</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -6760,13 +6727,13 @@
         <v>8009</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>452</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,13 +6748,13 @@
         <v>47667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -6796,13 +6763,13 @@
         <v>37657</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>459</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>120</v>
@@ -6811,13 +6778,13 @@
         <v>85324</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6873,7 +6840,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6885,13 +6852,13 @@
         <v>617</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>467</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6900,13 +6867,13 @@
         <v>604</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>468</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6915,13 +6882,13 @@
         <v>1221</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,13 +6903,13 @@
         <v>1266</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>471</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>464</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6951,13 +6918,13 @@
         <v>608</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -6966,13 +6933,13 @@
         <v>1874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>440</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,13 +6954,13 @@
         <v>4674</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>469</v>
+        <v>295</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -7002,13 +6969,13 @@
         <v>1924</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -7017,13 +6984,13 @@
         <v>6597</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>385</v>
+        <v>480</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +7005,13 @@
         <v>8836</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>328</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>249</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -7053,13 +7020,13 @@
         <v>4688</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -7068,13 +7035,13 @@
         <v>13524</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>480</v>
+        <v>372</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>481</v>
+        <v>166</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,13 +7056,13 @@
         <v>84912</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="H20" s="7">
         <v>142</v>
@@ -7104,13 +7071,13 @@
         <v>88156</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="M20" s="7">
         <v>269</v>
@@ -7119,13 +7086,13 @@
         <v>173066</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7181,7 +7148,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7193,13 +7160,13 @@
         <v>2016</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>390</v>
+        <v>53</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>356</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7214,7 +7181,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -7223,13 +7190,13 @@
         <v>2016</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>350</v>
+        <v>471</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>19</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7250,7 +7217,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>495</v>
+        <v>92</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -7259,13 +7226,13 @@
         <v>1033</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>441</v>
+        <v>212</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>261</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -7280,7 +7247,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>41</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7262,13 @@
         <v>2524</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>322</v>
+        <v>202</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7316,7 +7283,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -7325,13 +7292,13 @@
         <v>2524</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>499</v>
+        <v>366</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>199</v>
+        <v>501</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,13 +7313,13 @@
         <v>7974</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>502</v>
+        <v>252</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -7361,10 +7328,10 @@
         <v>11455</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>505</v>
+        <v>26</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>506</v>
@@ -7427,13 +7394,13 @@
         <v>135490</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>416</v>
+        <v>516</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,7 +7456,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7501,13 +7468,13 @@
         <v>2123</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -7516,13 +7483,13 @@
         <v>1468</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>521</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -7531,13 +7498,13 @@
         <v>3591</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>499</v>
+        <v>366</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>320</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,13 +7519,13 @@
         <v>553</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>392</v>
+        <v>470</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -7567,10 +7534,10 @@
         <v>2109</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>522</v>
+        <v>404</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>523</v>
@@ -7585,10 +7552,10 @@
         <v>524</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>525</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7603,13 +7570,13 @@
         <v>2028</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>527</v>
+        <v>133</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -7618,13 +7585,13 @@
         <v>2197</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -7636,10 +7603,10 @@
         <v>207</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>132</v>
+        <v>469</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>529</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7654,13 +7621,13 @@
         <v>12514</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>532</v>
+        <v>259</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
@@ -7669,13 +7636,13 @@
         <v>15456</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>535</v>
+        <v>237</v>
       </c>
       <c r="M31" s="7">
         <v>39</v>
@@ -7684,13 +7651,13 @@
         <v>27970</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7705,13 +7672,13 @@
         <v>102228</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H32" s="7">
         <v>119</v>
@@ -7720,13 +7687,13 @@
         <v>88442</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="M32" s="7">
         <v>264</v>
@@ -7735,13 +7702,13 @@
         <v>190670</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>547</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7809,13 +7776,13 @@
         <v>4756</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>519</v>
+        <v>46</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -7824,13 +7791,13 @@
         <v>2793</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>322</v>
+        <v>118</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>551</v>
+        <v>478</v>
       </c>
       <c r="M34" s="7">
         <v>11</v>
@@ -7842,10 +7809,10 @@
         <v>44</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>553</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7860,13 +7827,13 @@
         <v>4151</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>319</v>
+        <v>546</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>554</v>
+        <v>484</v>
       </c>
       <c r="H35" s="7">
         <v>6</v>
@@ -7875,13 +7842,13 @@
         <v>3750</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>127</v>
+        <v>398</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>556</v>
+        <v>484</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -7890,13 +7857,13 @@
         <v>7901</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>127</v>
+        <v>398</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>83</v>
+        <v>285</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7911,13 +7878,13 @@
         <v>11422</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>135</v>
+        <v>548</v>
       </c>
       <c r="H36" s="7">
         <v>9</v>
@@ -7926,13 +7893,13 @@
         <v>6388</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>134</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>329</v>
+        <v>391</v>
       </c>
       <c r="M36" s="7">
         <v>26</v>
@@ -7941,13 +7908,13 @@
         <v>17810</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>388</v>
+        <v>550</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>214</v>
+        <v>525</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7962,13 +7929,13 @@
         <v>31433</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>562</v>
+        <v>88</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="H37" s="7">
         <v>57</v>
@@ -7977,13 +7944,13 @@
         <v>37500</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="M37" s="7">
         <v>104</v>
@@ -7992,13 +7959,13 @@
         <v>68932</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,13 +7980,13 @@
         <v>320405</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H38" s="7">
         <v>433</v>
@@ -8028,13 +7995,13 @@
         <v>286160</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>572</v>
+        <v>145</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="M38" s="7">
         <v>891</v>
@@ -8043,13 +8010,13 @@
         <v>606565</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
